--- a/results/case1_consq/sensitivity_case1_consq.xlsx
+++ b/results/case1_consq/sensitivity_case1_consq.xlsx
@@ -541,25 +541,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>43.91%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-115.65%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>37.00%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-97.44%</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0.1119235031264038</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.06705358542562243</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.08777147563513507</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.05258405942482567</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -581,25 +573,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>47.43%</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>-124.93%</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>42.79%</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-112.70%</t>
-        </is>
+      <c r="N2" t="n">
+        <v>0.1287400259831807</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.07712839652821341</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.1104559431140466</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.06617436740700186</v>
       </c>
     </row>
     <row r="3">
@@ -610,83 +594,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-29.68%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>44.51%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.04063687109174986</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-49.97%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.96%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.07895686142515668</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-83.12%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>110.83%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.1546481594698949</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-70.03%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>93.38%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.1212765574858799</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-11.31%</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>12.73%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.006776609351051295</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-24.06%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>27.07%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.01657327124615707</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-53.70%</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>80.55%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.1774802426903737</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-48.44%</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>72.66%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.1522739135770896</v>
       </c>
     </row>
     <row r="4">
@@ -695,24 +663,20 @@
           <t>protection cover</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>103.63%</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.1011398149600312</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-116.79%</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>174.52%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.06746139279285315</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-196.68%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -735,24 +699,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>41.89%</t>
-        </is>
+      <c r="J4" t="n">
+        <v>-0.05702103187514064</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-44.53%</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>89.08%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.03755089760946198</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-94.71%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -782,85 +742,53 @@
           <t>total</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>73.96%</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-72.28%</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>124.54%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-121.72%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-39.21%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-4.82%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-33.04%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-4.06%</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>30.57%</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-31.80%</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>65.02%</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-67.64%</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>-6.27%</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>-44.38%</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>-5.65%</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-40.03%</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.1011398149600312</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.04063687109174986</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.06746139279285315</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.07895686142515668</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1119235031264038</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.2217017448955173</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.08777147563513507</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.1738606169107055</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.05702103187514064</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.006776609351051295</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.03755089760946198</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.01657327124615707</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1287400259831807</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.2546086392185871</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1104559431140466</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.2184482809840915</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/sensitivity_case1_consq.xlsx
+++ b/results/case1_consq/sensitivity_case1_consq.xlsx
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.1119235031264038</v>
+        <v>0.1326635731252798</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06705358542562243</v>
+        <v>-0.07947900114757572</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08777147563513507</v>
+        <v>0.08179346064572512</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05258405942482567</v>
+        <v>-0.04900261917705757</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1287400259831807</v>
+        <v>0.1366766746353953</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.07712839652821341</v>
+        <v>-0.08188325796060951</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1104559431140466</v>
+        <v>0.1175277233408542</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.06617436740700186</v>
+        <v>-0.0704110845066617</v>
       </c>
     </row>
     <row r="3">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.04063687109174986</v>
+        <v>-0.03910798304909512</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.07895686142515668</v>
+        <v>-0.07338277674976873</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.1546481594698949</v>
+        <v>-0.1485017337502301</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.1212765574858799</v>
+        <v>-0.09155844689823779</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-0.006776609351051295</v>
+        <v>-0.006505143945423606</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-0.01657327124615707</v>
+        <v>-0.01503845603796303</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>-0.1774802426903737</v>
+        <v>-0.1746910288520187</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1522739135770896</v>
+        <v>-0.1502161137869264</v>
       </c>
     </row>
     <row r="4">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1011398149600312</v>
+        <v>-0.09733462251747296</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.06746139279285315</v>
+        <v>-0.06269885431663211</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.05702103187514064</v>
+        <v>-0.05473682084285648</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-0.03755089760946198</v>
+        <v>-0.0340733921796857</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -743,52 +743,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1011398149600312</v>
+        <v>-0.09733462251747296</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04063687109174986</v>
+        <v>-0.03910798304909512</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06746139279285315</v>
+        <v>-0.06269885431663211</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.07895686142515668</v>
+        <v>-0.07338277674976873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1119235031264038</v>
+        <v>0.1326635731252798</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2217017448955173</v>
+        <v>-0.2279807348978058</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08777147563513507</v>
+        <v>0.08179346064572512</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1738606169107055</v>
+        <v>-0.1405610660752954</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.05702103187514064</v>
+        <v>-0.05473682084285648</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.006776609351051295</v>
+        <v>-0.006505143945423606</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.03755089760946198</v>
+        <v>-0.0340733921796857</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.01657327124615707</v>
+        <v>-0.01503845603796303</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1287400259831807</v>
+        <v>0.1366766746353953</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2546086392185871</v>
+        <v>-0.2565742868126282</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1104559431140466</v>
+        <v>0.1175277233408542</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2184482809840915</v>
+        <v>-0.2206271982935881</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/sensitivity_case1_consq.xlsx
+++ b/results/case1_consq/sensitivity_case1_consq.xlsx
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.1326635731252798</v>
+        <v>0.1420382040414519</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07947900114757572</v>
+        <v>-0.08509536051278702</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08179346064572512</v>
+        <v>0.09634980872551717</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04900261917705757</v>
+        <v>-0.05772335523506897</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1366766746353953</v>
+        <v>0.1237100527955792</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.08188325796060951</v>
+        <v>-0.07411492994253546</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1175277233408542</v>
+        <v>0.1078107740268589</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0704110845066617</v>
+        <v>-0.06458964153264603</v>
       </c>
     </row>
     <row r="3">
@@ -592,69 +592,69 @@
           <t>autoclave</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.03910798304909512</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.07338277674976873</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.1485017337502301</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.09155844689823779</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.006505143945423606</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.01503845603796303</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.1746910288520187</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.1502161137869264</v>
+      <c r="B3" t="n">
+        <v>-0.05113880773318808</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.09741289674434568</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.2018991281938848</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.1369557050837702</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.03417017569654045</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.07732508524605874</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.1626356117026649</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.1417336003483017</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09733462251747296</v>
+        <v>-0.09899381470787913</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.06269885431663211</v>
+        <v>-0.06473474666475003</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.05473682084285648</v>
+        <v>-0.05383627387481245</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-0.0340733921796857</v>
+        <v>-0.03280481946621152</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -743,52 +743,60 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09733462251747296</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.03910798304909512</v>
+        <v>-0.1501326224410672</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.06269885431663211</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.07338277674976873</v>
+        <v>-0.1621476434090957</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1326635731252798</v>
+        <v>-0.05986092415243296</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2279807348978058</v>
+        <v>-0.08509536051278702</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08179346064572512</v>
+        <v>-0.04060589635825303</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1405610660752954</v>
+        <v>-0.05772335523506897</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.05473682084285648</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-0.006505143945423606</v>
+        <v>-0.0880064495713529</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L5" t="n">
-        <v>-0.0340733921796857</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.01503845603796303</v>
+        <v>-0.1101299047122703</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1366766746353953</v>
+        <v>-0.03892555890708577</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2565742868126282</v>
+        <v>-0.07411492994253546</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1175277233408542</v>
+        <v>-0.03392282632144282</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2206271982935881</v>
+        <v>-0.06458964153264603</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/sensitivity_case1_consq.xlsx
+++ b/results/case1_consq/sensitivity_case1_consq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\case1_consq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AE0732-EC88-4FBB-B608-7E8F2CB27C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA48BC8-9EBF-47B6-B319-E18B91A2D87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="37680" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case1_consq" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>H2S - lower%</t>
   </si>
@@ -162,7 +162,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{DE5B6DC7-1D8C-4500-AECF-8AC95140CD40}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C9888EE4-8626-492A-8958-CC90BB60FD14}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -462,9 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -541,10 +539,10 @@
         <v>-8.1596451785255264E-2</v>
       </c>
       <c r="H2">
-        <v>7.108648805887742E-2</v>
+        <v>0.116929041605421</v>
       </c>
       <c r="I2">
-        <v>-4.2588051361117263E-2</v>
+        <v>-7.0052413130513747E-2</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -565,63 +563,63 @@
         <v>-7.2086438713678785E-2</v>
       </c>
       <c r="P2">
-        <v>8.7320944829644517E-2</v>
+        <v>0.12534606154431799</v>
       </c>
       <c r="Q2">
-        <v>-5.2314145555003091E-2</v>
+        <v>-7.5095065922256038E-2</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
         <v>-5.1138811703555033E-2</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
         <v>-9.7412903517732866E-2</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
         <v>-0.20429713704597319</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>-0.1066298444979106</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>-0.17539374730889751</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
         <v>-3.4170178430470877E-2</v>
       </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3">
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3">
         <v>-7.732509075020369E-2</v>
       </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3">
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3">
         <v>-0.1637152570553756</v>
       </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3">
-        <v>-0.1188104717058865</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3">
+        <v>-0.17054813971160451</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -682,52 +680,52 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-0.15013262555976889</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
+        <v>-9.8993813856213891E-2</v>
+      </c>
+      <c r="C5">
+        <v>-5.1138811703555033E-2</v>
       </c>
       <c r="D5">
-        <v>-0.16214764897716771</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>-6.4734745459434875E-2</v>
+      </c>
+      <c r="E5">
+        <v>-9.7412903517732866E-2</v>
       </c>
       <c r="F5">
-        <v>-6.8099189262545684E-2</v>
+        <v>0.1361979477834275</v>
       </c>
       <c r="G5">
-        <v>-8.1596451785255264E-2</v>
+        <v>-0.28589358883122851</v>
       </c>
       <c r="H5">
-        <v>-3.5543356439033211E-2</v>
+        <v>0.116929041605421</v>
       </c>
       <c r="I5">
-        <v>-4.2588051361117263E-2</v>
+        <v>-0.2454461604394112</v>
       </c>
       <c r="J5">
-        <v>-8.8006451973993594E-2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
+        <v>-5.3836273543522703E-2</v>
+      </c>
+      <c r="K5">
+        <v>-3.4170178430470877E-2</v>
       </c>
       <c r="L5">
-        <v>-0.1101299096867971</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
+        <v>-3.280481893659342E-2</v>
+      </c>
+      <c r="M5">
+        <v>-7.732509075020369E-2</v>
       </c>
       <c r="N5">
-        <v>-4.3391090979405127E-2</v>
+        <v>0.1203241660759705</v>
       </c>
       <c r="O5">
-        <v>-7.2086438713678785E-2</v>
+        <v>-0.23580169576905441</v>
       </c>
       <c r="P5">
-        <v>-3.1489526876241999E-2</v>
+        <v>0.12534606154431799</v>
       </c>
       <c r="Q5">
-        <v>-5.2314145555003091E-2</v>
+        <v>-0.24564320563386061</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/sensitivity_case1_consq.xlsx
+++ b/results/case1_consq/sensitivity_case1_consq.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>H2S - lower%</t>
+          <t>H2I - lower%</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>H2S - upper%</t>
+          <t>H2I - upper%</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,12 +476,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>H4S - lower%</t>
+          <t>H4I - lower%</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>H4S - upper%</t>
+          <t>H4I - upper%</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -663,22 +663,22 @@
           <t>protection cover</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>-0.09899381385621389</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>-0.06473474545943488</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>-</t>
@@ -699,21 +699,21 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>-0.0538362735435227</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>-0.03280481893659342</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -742,17 +742,21 @@
           <t>total</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.09899381385621389</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.05113881170355503</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.06473474545943488</v>
+        <v>-0.1501326255597689</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.09741290351773287</v>
+        <v>-0.1621476489771677</v>
       </c>
       <c r="F5" t="n">
         <v>0.1371418441898618</v>
@@ -766,17 +770,21 @@
       <c r="I5" t="n">
         <v>-0.2672291537549834</v>
       </c>
-      <c r="J5" t="n">
-        <v>-0.0538362735435227</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>-0.03417017843047088</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-0.03280481893659342</v>
+        <v>-0.08800645197399359</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M5" t="n">
-        <v>-0.07732509075020369</v>
+        <v>-0.1101299096867971</v>
       </c>
       <c r="N5" t="n">
         <v>0.1193034069582774</v>
